--- a/data/trans_dic/P21B_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.08786444887654045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09315559110663513</v>
+        <v>0.09315559110663511</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01645944797036318</v>
@@ -697,7 +697,7 @@
         <v>0.07261127757746913</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07599709271326781</v>
+        <v>0.07599709271326779</v>
       </c>
     </row>
     <row r="5">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04212646739277984</v>
+        <v>0.04319803901129612</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -723,25 +723,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.007319796481439829</v>
+        <v>0.007282772928939106</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01971926226910566</v>
+        <v>0.0183628350320675</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0</v>
+        <v>0.01580008599762247</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004247989325343136</v>
+        <v>0.004250877771623441</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008060269758538675</v>
+        <v>0.007956278694733464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04203252466029684</v>
+        <v>0.04181599653110723</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02568303811866086</v>
+        <v>0.02938442158240687</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05534938445096934</v>
+        <v>0.05883255448539869</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06372068283815069</v>
+        <v>0.05767339593426692</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1609153397109499</v>
+        <v>0.1615142017294646</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2839699901908296</v>
+        <v>0.3239582612954088</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05793359666078304</v>
+        <v>0.05698111527043966</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06079115586960745</v>
+        <v>0.06083577406806532</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1348438944794648</v>
+        <v>0.1224481757980952</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1653675205244736</v>
+        <v>0.175017078278187</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03678829175547733</v>
+        <v>0.04120030546056573</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04566299155990229</v>
+        <v>0.04679525756076688</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.119298004961136</v>
+        <v>0.1223035541680826</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1849268446028944</v>
+        <v>0.1747496507097526</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1120302668370814</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1271861885157099</v>
+        <v>0.1271861885157098</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.05192826100140526</v>
@@ -833,7 +833,7 @@
         <v>0.1091204276526605</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08036940967099217</v>
+        <v>0.08036940967099218</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01810904524786887</v>
+        <v>0.01722079859127615</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0114729897811052</v>
+        <v>0.01139191984811595</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05343246124778064</v>
+        <v>0.0510853668009817</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0238690661012856</v>
+        <v>0.02591284422634805</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03350560139902512</v>
+        <v>0.03304144211636905</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06130374108933941</v>
+        <v>0.06863136298857117</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0700499212065535</v>
+        <v>0.07459278307438245</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03035628607446778</v>
+        <v>0.03164835218468672</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02917234788337059</v>
+        <v>0.02834234404657789</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0719656779754401</v>
+        <v>0.07056817513225473</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04582802809521392</v>
+        <v>0.04938164952522614</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1008086004590728</v>
+        <v>0.1031278952601854</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06961510793369027</v>
+        <v>0.06414235230046257</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1825763636918853</v>
+        <v>0.1886009723825575</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07675812489743448</v>
+        <v>0.09464687937624557</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09562132519227165</v>
+        <v>0.09571892344805648</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1012661367013395</v>
+        <v>0.1000282692551648</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1726585976176222</v>
+        <v>0.176976452946035</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2077001811536058</v>
+        <v>0.2065277998285617</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08226575182817196</v>
+        <v>0.08943553166565575</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07435503078714729</v>
+        <v>0.07061923407940464</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1560597791680363</v>
+        <v>0.1573426874302588</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1249373439337596</v>
+        <v>0.1313207063727205</v>
       </c>
     </row>
     <row r="10">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007531227514642177</v>
+        <v>0.007465733802682004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01937556857412716</v>
+        <v>0.02255725861898866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05896971550662543</v>
+        <v>0.0551534445579813</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006206830776940844</v>
+        <v>0.00616390101126301</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005235418814547369</v>
+        <v>0.005240735409475955</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07857871185248953</v>
+        <v>0.08297507551900576</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03614695093893436</v>
+        <v>0.03551777909244246</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007562588492083386</v>
+        <v>0.008036679842702675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.009814984429720817</v>
+        <v>0.009697097775681859</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06408064595476788</v>
+        <v>0.06569762394194628</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0565888434497727</v>
+        <v>0.05834600804002569</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07351237482677074</v>
+        <v>0.07681864976501902</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09588055381683672</v>
+        <v>0.09734965474719703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1373681679040683</v>
+        <v>0.1310379963557833</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1784894355279996</v>
+        <v>0.1704574082559172</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06100341068277048</v>
+        <v>0.05446012036767421</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04908744100601287</v>
+        <v>0.04446692695578611</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2005452158186379</v>
+        <v>0.1986191469832783</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1065208372635343</v>
+        <v>0.1070215310521593</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04222172580463299</v>
+        <v>0.04668743038645342</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05453551383304212</v>
+        <v>0.05708100783398604</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1501971224819472</v>
+        <v>0.1459946644506678</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1242580122467091</v>
+        <v>0.1315233491754104</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.04062921663727059</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1019471787550269</v>
+        <v>0.101947178755027</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0307996249067133</v>
@@ -1116,38 +1116,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02453664561094304</v>
+        <v>0.02360435613129411</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01032071273049803</v>
+        <v>0.01146700941403931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02092588247594871</v>
+        <v>0.01279672465812435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0530709433833734</v>
+        <v>0.05244141146452165</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.02330031830714138</v>
+        <v>0.0254136786186148</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009863993896456848</v>
+        <v>0.01043553163972972</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07211689131209374</v>
+        <v>0.06856413297028049</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01099603500290771</v>
+        <v>0.01113157163804528</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02780564442451847</v>
+        <v>0.02737537101243616</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02232778752829858</v>
+        <v>0.02093595626780885</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06966537634222095</v>
+        <v>0.07042736432215913</v>
       </c>
     </row>
     <row r="15">
@@ -1158,38 +1158,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1629086906497318</v>
+        <v>0.1607901458581651</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1032229685308011</v>
+        <v>0.1039919000688218</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.138386921346769</v>
+        <v>0.1489350136519212</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.142783023604073</v>
+        <v>0.1416235550834592</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.1348261983883441</v>
+        <v>0.1367673047386539</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09283712729159212</v>
+        <v>0.09270037609328668</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1444404673220151</v>
+        <v>0.1405777304502768</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0711082240455455</v>
+        <v>0.07565110581309129</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1000358221746437</v>
+        <v>0.09760086313889799</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08954963134345101</v>
+        <v>0.08538992558182447</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1240779489623645</v>
+        <v>0.1254989687420612</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.03023612621735197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06351531083042558</v>
+        <v>0.06351531083042559</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02881385630939608</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04040898443753713</v>
+        <v>0.03217054343525538</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03096398029094498</v>
+        <v>0.03023872367604527</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1269,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05417932137352926</v>
+        <v>0.05359490114790694</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02392409947288102</v>
+        <v>0.02495537529584301</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007781086064884002</v>
+        <v>0.0116658404348836</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0519337972382211</v>
+        <v>0.05019818661292218</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2206252820791725</v>
+        <v>0.2165465496102641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06697905895115355</v>
+        <v>0.0885302178014454</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1102486375999079</v>
+        <v>0.09607598253179832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1177139199173973</v>
+        <v>0.113812983786665</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.104872366926257</v>
+        <v>0.1018591595601431</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04939487404493417</v>
+        <v>0.0525018745364173</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1107264836183895</v>
+        <v>0.1115654121168225</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1297118905485567</v>
+        <v>0.1295796859754376</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1108732294288692</v>
+        <v>0.1267205141359139</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03891341709875863</v>
+        <v>0.04137623668725482</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08562070926472158</v>
+        <v>0.08365452021685173</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1086912977708458</v>
+        <v>0.110186912494387</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>0.03136164480647526</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.08786970757539563</v>
+        <v>0.08786970757539564</v>
       </c>
     </row>
     <row r="20">
@@ -1391,31 +1391,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0680210168647154</v>
+        <v>0.06792126042067102</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.007690636248187908</v>
+        <v>0.007750527092178955</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01277879667796536</v>
+        <v>0.01277719824903917</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03098309252795494</v>
+        <v>0.03439010384630867</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.005728247830928775</v>
+        <v>0.005711360166832261</v>
       </c>
       <c r="L20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.00823984131966991</v>
+        <v>0.007669395113310692</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05915795580688211</v>
+        <v>0.05662727873731202</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0743112227988921</v>
+        <v>0.07959978759350776</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.1004402540434783</v>
+        <v>0.09018580066026408</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1978416751044028</v>
+        <v>0.2095439891329923</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07054707887313046</v>
+        <v>0.0750575764846669</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.069613248956143</v>
+        <v>0.07263595869780826</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1102954707089382</v>
+        <v>0.1129846412328712</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1035332136742583</v>
+        <v>0.1072239235614181</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05494339670221068</v>
+        <v>0.05086740499830805</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04475062996173729</v>
+        <v>0.04553388146712817</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08033613868315556</v>
+        <v>0.07636502946284869</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1308527108508578</v>
+        <v>0.1317649318600034</v>
       </c>
     </row>
     <row r="22">
@@ -1493,7 +1493,7 @@
         <v>0.02611991384923064</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.03032775751654923</v>
+        <v>0.03032775751654922</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03627040878796738</v>
@@ -1520,13 +1520,13 @@
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
-        <v>0.02065754012022988</v>
+        <v>0.02061909184624914</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01998274402770733</v>
+        <v>0.02032636793175727</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0114852949149562</v>
+        <v>0.01142788258674719</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
@@ -1535,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.012773779105538</v>
+        <v>0.01447668828689937</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01231450185595048</v>
+        <v>0.01324724448548765</v>
       </c>
       <c r="L23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01898249648632203</v>
+        <v>0.01798998326169804</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0201564900949062</v>
+        <v>0.0200793448185395</v>
       </c>
     </row>
     <row r="24">
@@ -1558,38 +1558,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1270514869677105</v>
+        <v>0.1346058843098822</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.1991795801879905</v>
+        <v>0.2115651938076049</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1216215740167925</v>
+        <v>0.1216171705220812</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1001912201264806</v>
+        <v>0.09699375352807067</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03650154965229338</v>
+        <v>0.03951282300622163</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07911804682994361</v>
+        <v>0.1004540258126597</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06478245922058422</v>
+        <v>0.0653743074692424</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07694206178841011</v>
+        <v>0.08409747959924076</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02371672365319926</v>
+        <v>0.02825672465363813</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.101348974166214</v>
+        <v>0.0995877792536875</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06481176253519111</v>
+        <v>0.06865928889762543</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.06869625946945786</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.07886695338295806</v>
+        <v>0.07886695338295807</v>
       </c>
     </row>
     <row r="26">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02603601084082386</v>
+        <v>0.02590721971762633</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01300439658371371</v>
+        <v>0.01293583981262885</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04683941661010241</v>
+        <v>0.04659887154030128</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0586000302575059</v>
+        <v>0.05989991176355455</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.018119575973326</v>
+        <v>0.01780940469464522</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02109730228790237</v>
+        <v>0.02132642387888497</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05504462336153558</v>
+        <v>0.05199403007194808</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06362794223112297</v>
+        <v>0.06302352573479365</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02475921578349058</v>
+        <v>0.02529432169298651</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02026123366297808</v>
+        <v>0.01961046531347498</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0556670160022954</v>
+        <v>0.05430354425677739</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0662552709041821</v>
+        <v>0.06626655747782063</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06423492086587394</v>
+        <v>0.06134412784049822</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0367676811902572</v>
+        <v>0.03707227894440235</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09285309370122723</v>
+        <v>0.09326668972055564</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1031419170641118</v>
+        <v>0.1033260661842485</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04216812618822973</v>
+        <v>0.04243338188217155</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04456639774609691</v>
+        <v>0.04434689993448704</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0959491762745763</v>
+        <v>0.09057258011929302</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0971761782373536</v>
+        <v>0.096481061210739</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04555578710690705</v>
+        <v>0.04650979204071869</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03783198358219134</v>
+        <v>0.03589959312576688</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08454582199238801</v>
+        <v>0.08328989273786</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.09247467934834987</v>
+        <v>0.09378406919485396</v>
       </c>
     </row>
     <row r="28">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3899</v>
+        <v>3998</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -2014,25 +2014,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1821</v>
+        <v>1695</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1908</v>
+        <v>1883</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7771</v>
+        <v>7731</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4333</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="7">
@@ -2043,40 +2043,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5441</v>
+        <v>5783</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6916</v>
+        <v>6260</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14892</v>
+        <v>14948</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20916</v>
+        <v>23862</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6460</v>
+        <v>6353</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7790</v>
+        <v>7796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12449</v>
+        <v>11305</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15716</v>
+        <v>16633</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7718</v>
+        <v>8644</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>10808</v>
+        <v>11076</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>22055</v>
+        <v>22611</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>31196</v>
+        <v>29479</v>
       </c>
     </row>
     <row r="8">
@@ -2179,40 +2179,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2017</v>
+        <v>1918</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1871</v>
+        <v>1858</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5049</v>
+        <v>4828</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4422</v>
+        <v>4800</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7119</v>
+        <v>7020</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8614</v>
+        <v>9644</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9143</v>
+        <v>9736</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9004</v>
+        <v>9387</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>10955</v>
+        <v>10643</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16913</v>
+        <v>16585</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10448</v>
+        <v>11258</v>
       </c>
     </row>
     <row r="11">
@@ -2223,40 +2223,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11226</v>
+        <v>11485</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11352</v>
+        <v>10459</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17254</v>
+        <v>17823</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7481</v>
+        <v>9225</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17714</v>
+        <v>17732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21515</v>
+        <v>21252</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>24262</v>
+        <v>24869</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27109</v>
+        <v>26956</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24401</v>
+        <v>26528</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27922</v>
+        <v>26519</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>36677</v>
+        <v>36979</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>28484</v>
+        <v>29939</v>
       </c>
     </row>
     <row r="12">
@@ -2362,37 +2362,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2043</v>
+        <v>2379</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7584</v>
+        <v>7093</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>11173</v>
+        <v>11798</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5457</v>
+        <v>5362</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1707</v>
+        <v>1814</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2877</v>
+        <v>2842</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15870</v>
+        <v>16271</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>15821</v>
+        <v>16312</v>
       </c>
     </row>
     <row r="15">
@@ -2403,40 +2403,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6514</v>
+        <v>6807</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11962</v>
+        <v>12146</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14488</v>
+        <v>13820</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22956</v>
+        <v>21923</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8365</v>
+        <v>7468</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8263</v>
+        <v>7485</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>28516</v>
+        <v>28242</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16081</v>
+        <v>16157</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9531</v>
+        <v>10539</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>15984</v>
+        <v>16731</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>37198</v>
+        <v>36157</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>34740</v>
+        <v>36771</v>
       </c>
     </row>
     <row r="16">
@@ -2539,38 +2539,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1942</v>
+        <v>1868</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1020</v>
+        <v>1134</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1867</v>
+        <v>1142</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9196</v>
+        <v>9087</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>3026</v>
+        <v>3300</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1100</v>
+        <v>1163</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12741</v>
+        <v>12113</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2013</v>
+        <v>2038</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6360</v>
+        <v>6261</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4481</v>
+        <v>4202</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>24380</v>
+        <v>24647</v>
       </c>
     </row>
     <row r="19">
@@ -2581,38 +2581,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12895</v>
+        <v>12727</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10206</v>
+        <v>10282</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12345</v>
+        <v>13286</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24742</v>
+        <v>24541</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>17508</v>
+        <v>17760</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10350</v>
+        <v>10335</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>25519</v>
+        <v>24836</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13018</v>
+        <v>13850</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>22881</v>
+        <v>22324</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>17972</v>
+        <v>17137</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>43422</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="20">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2550</v>
+        <v>2030</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3847</v>
+        <v>3757</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2736,19 +2736,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7952</v>
+        <v>7867</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3578</v>
+        <v>3732</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1221</v>
+        <v>1831</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>14075</v>
+        <v>13604</v>
       </c>
     </row>
     <row r="23">
@@ -2759,40 +2759,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13923</v>
+        <v>13665</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4993</v>
+        <v>6599</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7506</v>
+        <v>6541</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14624</v>
+        <v>14140</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9064</v>
+        <v>8804</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5143</v>
+        <v>5467</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9837</v>
+        <v>9912</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>19039</v>
+        <v>19019</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16580</v>
+        <v>18949</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6953</v>
+        <v>7393</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13436</v>
+        <v>13128</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>29457</v>
+        <v>29862</v>
       </c>
     </row>
     <row r="24">
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4890</v>
+        <v>4882</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
@@ -2914,19 +2914,19 @@
         <v>984</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3164</v>
+        <v>3512</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1104</v>
+        <v>1027</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>10294</v>
+        <v>9854</v>
       </c>
     </row>
     <row r="27">
@@ -2937,38 +2937,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4554</v>
+        <v>4878</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>5721</v>
+        <v>5137</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14222</v>
+        <v>15063</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6677</v>
+        <v>7104</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6413</v>
+        <v>6692</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8490</v>
+        <v>8697</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10573</v>
+        <v>10950</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8567</v>
+        <v>7932</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>6651</v>
+        <v>6767</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>10760</v>
+        <v>10228</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>22770</v>
+        <v>22928</v>
       </c>
     </row>
     <row r="28">
@@ -3075,13 +3075,13 @@
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1265</v>
+        <v>1287</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
@@ -3090,19 +3090,19 @@
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1694</v>
+        <v>1920</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1992</v>
+        <v>2143</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2689</v>
+        <v>2548</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3950</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="31">
@@ -3113,38 +3113,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7195</v>
+        <v>7623</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>8903</v>
+        <v>9456</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>7701</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10533</v>
+        <v>10197</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5194</v>
+        <v>5622</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>7672</v>
+        <v>9740</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>8592</v>
+        <v>8670</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>12446</v>
+        <v>13603</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5209</v>
+        <v>6206</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>14357</v>
+        <v>14108</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>12700</v>
+        <v>13454</v>
       </c>
     </row>
     <row r="32">
@@ -3247,40 +3247,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>14540</v>
+        <v>14468</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9150</v>
+        <v>9102</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>25830</v>
+        <v>25698</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>42922</v>
+        <v>43874</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>14931</v>
+        <v>14675</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>20619</v>
+        <v>20843</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>41245</v>
+        <v>38959</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>59475</v>
+        <v>58910</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>34228</v>
+        <v>34968</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>34058</v>
+        <v>32964</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>72410</v>
+        <v>70637</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>110460</v>
+        <v>110479</v>
       </c>
     </row>
     <row r="35">
@@ -3291,40 +3291,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>35872</v>
+        <v>34257</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>25870</v>
+        <v>26084</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>51205</v>
+        <v>51434</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>75547</v>
+        <v>75682</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>34747</v>
+        <v>34965</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>43557</v>
+        <v>43342</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>71895</v>
+        <v>67866</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>90833</v>
+        <v>90184</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>62979</v>
+        <v>64298</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>63594</v>
+        <v>60345</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>109975</v>
+        <v>108341</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>154173</v>
+        <v>156356</v>
       </c>
     </row>
     <row r="36">
